--- a/xlsx/ICAO_WXXM_3.0.0_Semantic_Correspondence_Report_v3.xlsx
+++ b/xlsx/ICAO_WXXM_3.0.0_Semantic_Correspondence_Report_v3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paco/Documents/GitHub/connectedbyairm2021/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A1DB8F-37E3-A34E-A56C-93463D97EA7F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92AF7049-1808-1043-99D7-35E1444BFA98}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-4160" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/xlsx/ICAO_WXXM_3.0.0_Semantic_Correspondence_Report_v3.xlsx
+++ b/xlsx/ICAO_WXXM_3.0.0_Semantic_Correspondence_Report_v3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paco/Documents/GitHub/connectedbyairm2021/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92AF7049-1808-1043-99D7-35E1444BFA98}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A5EDE3-B212-1B4C-8E21-AB93C1DF977B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-4160" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4393,7 +4393,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4587,7 +4587,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F348" sqref="F348"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/xlsx/ICAO_WXXM_3.0.0_Semantic_Correspondence_Report_v3.xlsx
+++ b/xlsx/ICAO_WXXM_3.0.0_Semantic_Correspondence_Report_v3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paco/Documents/GitHub/connectedbyairm2021/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A5EDE3-B212-1B4C-8E21-AB93C1DF977B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B7388E9-92B2-9345-B74A-E564540E388B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4160" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1640" yWindow="-21100" windowWidth="35880" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="report" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2001" uniqueCount="1049">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2000" uniqueCount="1046">
   <si>
     <t>AerodromeAirTemperatureForecast</t>
   </si>
@@ -2735,11 +2735,6 @@
     <t>role played by AerodromeForecastWeather in this specific application context;</t>
   </si>
   <si>
-    <t>multiple mapping. Wind forecast is present in AIRM as:
-- phenomenon associated to an Aerodrome Forecast
-- the Wind phenomenon itself</t>
-  </si>
-  <si>
     <t xml:space="preserve">This is a subset of the AIRM "CodeCloudTypesType" codelist.
 </t>
   </si>
@@ -2826,9 +2821,6 @@
   </si>
   <si>
     <t>urn:aero:airm:1.0.0:LogicalModel:Subjects:Meteorology:Wind@isVariable</t>
-  </si>
-  <si>
-    <t>urn:aero:airm:1.0.0:LogicalModel:Subjects:Meteorology:AviationCondition@windGust</t>
   </si>
   <si>
     <t>urn:aero:airm:1.0.0:LogicalModel:Subjects:Meteorology:Codelists:CodeCloudAmountType</t>
@@ -3271,9 +3263,6 @@
   </si>
   <si>
     <t>Additional Traces</t>
-  </si>
-  <si>
-    <t>urn:aero:airm:1.0.0:LogicalModel:Subjects:Meteorology:AerodromeCondition@phenomenon</t>
   </si>
   <si>
     <t>urn:aero:airm:1.0.0:LogicalModel:Subjects:Meteorology:WeatherPhenomenon@base</t>
@@ -3957,7 +3946,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4067,6 +4056,9 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -4453,7 +4445,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="14" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="C8" s="37"/>
       <c r="D8" s="37"/>
@@ -4585,9 +4577,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M344"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F350" sqref="F350"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4612,7 +4604,7 @@
         <v>475</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>476</v>
@@ -4624,7 +4616,7 @@
         <v>478</v>
       </c>
       <c r="G1" s="36" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="H1" s="26" t="s">
         <v>479</v>
@@ -4653,7 +4645,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="29" t="s">
@@ -4665,7 +4657,7 @@
       </c>
       <c r="K2" s="29"/>
       <c r="L2" s="1" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -4685,7 +4677,7 @@
         <v>4</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="G3" s="30"/>
       <c r="H3" s="29"/>
@@ -4693,7 +4685,7 @@
       <c r="J3" s="29"/>
       <c r="K3" s="29"/>
       <c r="L3" s="29" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -4713,7 +4705,7 @@
         <v>7</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="G4" s="30"/>
       <c r="H4" s="29"/>
@@ -4721,7 +4713,7 @@
       <c r="J4" s="29"/>
       <c r="K4" s="29"/>
       <c r="L4" s="29" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -4741,7 +4733,7 @@
         <v>9</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="G5" s="30"/>
       <c r="H5" s="29"/>
@@ -4749,7 +4741,7 @@
       <c r="J5" s="29"/>
       <c r="K5" s="29"/>
       <c r="L5" s="29" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -4769,7 +4761,7 @@
         <v>11</v>
       </c>
       <c r="F6" s="30" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="G6" s="30"/>
       <c r="H6" s="29"/>
@@ -4777,7 +4769,7 @@
       <c r="J6" s="29"/>
       <c r="K6" s="29"/>
       <c r="L6" s="29" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -4791,7 +4783,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="G7" s="31"/>
       <c r="H7" s="29"/>
@@ -4799,7 +4791,7 @@
       <c r="J7" s="29"/>
       <c r="K7" s="29"/>
       <c r="L7" s="29" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="160" x14ac:dyDescent="0.2">
@@ -4819,10 +4811,10 @@
         <v>16</v>
       </c>
       <c r="F8" s="32" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="G8" s="32" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
@@ -4844,10 +4836,10 @@
         <v>619</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="G9" s="32"/>
       <c r="H9" s="29"/>
@@ -4855,7 +4847,7 @@
       <c r="J9" s="29"/>
       <c r="K9" s="29"/>
       <c r="L9" s="29" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="64" x14ac:dyDescent="0.2">
@@ -4879,7 +4871,7 @@
       </c>
       <c r="K10" s="29"/>
       <c r="L10" s="1" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -4899,10 +4891,10 @@
         <v>21</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="G11" s="32" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="H11" s="29"/>
       <c r="I11" s="29"/>
@@ -4927,7 +4919,7 @@
         <v>22</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="29"/>
@@ -4947,7 +4939,7 @@
         <v>24</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="29"/>
@@ -4955,7 +4947,7 @@
       <c r="J13" s="29"/>
       <c r="K13" s="29"/>
       <c r="L13" s="1" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="96" x14ac:dyDescent="0.2">
@@ -4969,7 +4961,7 @@
         <v>26</v>
       </c>
       <c r="F14" s="31" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="G14" s="31"/>
       <c r="H14" s="29"/>
@@ -4995,7 +4987,7 @@
         <v>29</v>
       </c>
       <c r="F15" s="31" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="G15" s="31"/>
       <c r="H15" s="29"/>
@@ -5021,7 +5013,7 @@
         <v>32</v>
       </c>
       <c r="F16" s="31" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G16" s="31"/>
       <c r="H16" s="29"/>
@@ -5047,7 +5039,7 @@
         <v>716</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="G17" s="19"/>
       <c r="H17" s="29"/>
@@ -5073,7 +5065,7 @@
         <v>36</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="G18" s="19"/>
       <c r="H18" s="29"/>
@@ -5093,7 +5085,7 @@
         <v>38</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="29"/>
@@ -5101,7 +5093,7 @@
       <c r="J19" s="29"/>
       <c r="K19" s="29"/>
       <c r="L19" s="1" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -5115,7 +5107,7 @@
         <v>40</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="29"/>
@@ -5123,7 +5115,7 @@
       <c r="J20" s="29"/>
       <c r="K20" s="29"/>
       <c r="L20" s="1" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -5137,7 +5129,7 @@
         <v>42</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="29"/>
@@ -5163,7 +5155,7 @@
         <v>45</v>
       </c>
       <c r="F22" s="31" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="G22" s="31"/>
       <c r="H22" s="29"/>
@@ -5189,7 +5181,7 @@
         <v>48</v>
       </c>
       <c r="F23" s="31" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G23" s="31"/>
       <c r="H23" s="29"/>
@@ -5215,7 +5207,7 @@
         <v>51</v>
       </c>
       <c r="F24" s="31" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="G24" s="31"/>
       <c r="H24" s="29"/>
@@ -5241,7 +5233,7 @@
         <v>53</v>
       </c>
       <c r="F25" s="31" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="G25" s="31"/>
       <c r="H25" s="29"/>
@@ -5267,7 +5259,7 @@
         <v>56</v>
       </c>
       <c r="F26" s="31" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="G26" s="31"/>
       <c r="H26" s="29"/>
@@ -5319,7 +5311,7 @@
         <v>61</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="G28" s="19"/>
       <c r="H28" s="29"/>
@@ -5365,7 +5357,7 @@
         <v>65</v>
       </c>
       <c r="F30" s="31" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="G30" s="31"/>
       <c r="H30" s="29"/>
@@ -5391,7 +5383,7 @@
         <v>66</v>
       </c>
       <c r="F31" s="31" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="G31" s="31"/>
       <c r="H31" s="29"/>
@@ -5417,7 +5409,7 @@
         <v>68</v>
       </c>
       <c r="F32" s="31" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="G32" s="31"/>
       <c r="H32" s="29"/>
@@ -5443,7 +5435,7 @@
         <v>70</v>
       </c>
       <c r="F33" s="31" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G33" s="31"/>
       <c r="H33" s="29"/>
@@ -5469,7 +5461,7 @@
         <v>73</v>
       </c>
       <c r="F34" s="31" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="G34" s="31"/>
       <c r="H34" s="29"/>
@@ -5477,7 +5469,7 @@
       <c r="J34" s="29"/>
       <c r="K34" s="29"/>
       <c r="L34" s="1" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="80" x14ac:dyDescent="0.2">
@@ -5491,7 +5483,7 @@
         <v>75</v>
       </c>
       <c r="F35" s="31" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="G35" s="31"/>
       <c r="H35" s="29"/>
@@ -5517,10 +5509,10 @@
         <v>78</v>
       </c>
       <c r="F36" s="31" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="G36" s="31" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="H36" s="29"/>
       <c r="I36" s="29"/>
@@ -5545,10 +5537,10 @@
         <v>80</v>
       </c>
       <c r="F37" s="31" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="G37" s="31" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="H37" s="29"/>
       <c r="I37" s="29"/>
@@ -5573,7 +5565,7 @@
         <v>83</v>
       </c>
       <c r="F38" s="31" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="G38" s="31"/>
       <c r="H38" s="29"/>
@@ -5593,7 +5585,7 @@
         <v>858</v>
       </c>
       <c r="F39" s="31" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="G39" s="31"/>
       <c r="H39" s="29"/>
@@ -5601,7 +5593,7 @@
       <c r="J39" s="29"/>
       <c r="K39" s="29"/>
       <c r="L39" s="1" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="80" x14ac:dyDescent="0.2">
@@ -5621,7 +5613,7 @@
         <v>86</v>
       </c>
       <c r="F40" s="31" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="G40" s="31"/>
       <c r="H40" s="29"/>
@@ -5647,7 +5639,7 @@
         <v>89</v>
       </c>
       <c r="F41" s="31" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="G41" s="31"/>
       <c r="H41" s="29"/>
@@ -5673,7 +5665,7 @@
         <v>91</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="29"/>
@@ -5681,10 +5673,10 @@
       <c r="J42" s="29"/>
       <c r="K42" s="29"/>
       <c r="L42" s="1" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="M42" s="35" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="64" x14ac:dyDescent="0.2">
@@ -5704,7 +5696,7 @@
         <v>93</v>
       </c>
       <c r="F43" s="31" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="G43" s="31"/>
       <c r="H43" s="29"/>
@@ -5730,16 +5722,16 @@
         <v>95</v>
       </c>
       <c r="H44" s="29" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="I44" s="29"/>
       <c r="J44" s="29"/>
       <c r="K44" s="29"/>
       <c r="L44" s="1" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="M44" s="19" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="64" x14ac:dyDescent="0.2">
@@ -5759,7 +5751,7 @@
         <v>97</v>
       </c>
       <c r="F45" s="31" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G45" s="31"/>
       <c r="H45" s="29"/>
@@ -5785,7 +5777,7 @@
         <v>99</v>
       </c>
       <c r="F46" s="31" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G46" s="31"/>
       <c r="H46" s="29"/>
@@ -5811,7 +5803,7 @@
         <v>101</v>
       </c>
       <c r="F47" s="31" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="G47" s="31"/>
       <c r="H47" s="29"/>
@@ -5830,19 +5822,17 @@
       <c r="E48" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F48" s="33" t="s">
-        <v>1037</v>
-      </c>
-      <c r="G48" s="33" t="s">
-        <v>892</v>
+      <c r="F48" s="38" t="s">
+        <v>973</v>
+      </c>
+      <c r="G48" s="38" t="s">
+        <v>891</v>
       </c>
       <c r="H48" s="29"/>
       <c r="I48" s="29"/>
       <c r="J48" s="29"/>
       <c r="K48" s="29"/>
-      <c r="L48" s="1" t="s">
-        <v>869</v>
-      </c>
+      <c r="L48" s="1"/>
     </row>
     <row r="49" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
@@ -5861,7 +5851,7 @@
         <v>105</v>
       </c>
       <c r="F49" s="32" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="G49" s="32"/>
       <c r="H49" s="29"/>
@@ -5883,13 +5873,13 @@
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="29" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="I50" s="29"/>
       <c r="J50" s="29"/>
       <c r="K50" s="29"/>
       <c r="L50" s="29" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="64" x14ac:dyDescent="0.2">
@@ -5909,7 +5899,7 @@
         <v>108</v>
       </c>
       <c r="F51" s="32" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="G51" s="32"/>
       <c r="H51" s="29"/>
@@ -5935,7 +5925,7 @@
         <v>110</v>
       </c>
       <c r="F52" s="32" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="G52" s="32"/>
       <c r="H52" s="29"/>
@@ -5961,7 +5951,7 @@
         <v>91</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="G53" s="1"/>
       <c r="H53" s="29"/>
@@ -5969,7 +5959,7 @@
       <c r="J53" s="29"/>
       <c r="K53" s="29"/>
       <c r="L53" s="1" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -5989,7 +5979,7 @@
         <v>111</v>
       </c>
       <c r="F54" s="32" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="G54" s="32"/>
       <c r="H54" s="29"/>
@@ -6017,13 +6007,13 @@
       <c r="F55" s="19"/>
       <c r="G55" s="19"/>
       <c r="H55" s="29" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="I55" s="29"/>
       <c r="J55" s="29"/>
       <c r="K55" s="29"/>
       <c r="L55" s="1" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="64" x14ac:dyDescent="0.2">
@@ -6047,7 +6037,7 @@
       </c>
       <c r="K56" s="29"/>
       <c r="L56" s="1" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -6067,7 +6057,7 @@
         <v>114</v>
       </c>
       <c r="F57" s="19" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="G57" s="19"/>
       <c r="H57" s="29"/>
@@ -6095,7 +6085,7 @@
       <c r="F58" s="19"/>
       <c r="G58" s="19"/>
       <c r="H58" s="29" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="I58" s="29"/>
       <c r="J58" s="29"/>
@@ -6113,7 +6103,7 @@
         <v>117</v>
       </c>
       <c r="F59" s="19" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="G59" s="19"/>
       <c r="H59" s="29"/>
@@ -6121,7 +6111,7 @@
       <c r="J59" s="29"/>
       <c r="K59" s="29"/>
       <c r="L59" s="29" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -6135,7 +6125,7 @@
         <v>119</v>
       </c>
       <c r="F60" s="19" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="G60" s="19"/>
       <c r="H60" s="29"/>
@@ -6143,7 +6133,7 @@
       <c r="J60" s="29"/>
       <c r="K60" s="29"/>
       <c r="L60" s="29" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="112" x14ac:dyDescent="0.2">
@@ -6165,7 +6155,7 @@
       <c r="J61" s="29"/>
       <c r="K61" s="29"/>
       <c r="L61" s="29" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -6211,7 +6201,7 @@
         <v>127</v>
       </c>
       <c r="F63" s="19" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="G63" s="19"/>
       <c r="H63" s="29"/>
@@ -6237,7 +6227,7 @@
         <v>129</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="G64" s="1"/>
       <c r="H64" s="29"/>
@@ -6245,7 +6235,7 @@
       <c r="J64" s="29"/>
       <c r="K64" s="29"/>
       <c r="L64" s="1" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -6267,7 +6257,7 @@
       <c r="F65" s="19"/>
       <c r="G65" s="19"/>
       <c r="H65" s="29" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="I65" s="29"/>
       <c r="J65" s="29"/>
@@ -6392,10 +6382,10 @@
         <v>665</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="F70" s="19" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="G70" s="19"/>
       <c r="H70" s="29"/>
@@ -6403,7 +6393,7 @@
       <c r="J70" s="29"/>
       <c r="K70" s="29"/>
       <c r="L70" s="29" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="96" x14ac:dyDescent="0.2">
@@ -6431,7 +6421,7 @@
       <c r="J71" s="29"/>
       <c r="K71" s="29"/>
       <c r="L71" s="29" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -6459,7 +6449,7 @@
       <c r="J72" s="29"/>
       <c r="K72" s="29"/>
       <c r="L72" s="29" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -6473,7 +6463,7 @@
         <v>151</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="G73" s="1"/>
       <c r="H73" s="29"/>
@@ -6481,7 +6471,7 @@
       <c r="J73" s="29"/>
       <c r="K73" s="29"/>
       <c r="L73" s="29" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="80" x14ac:dyDescent="0.2">
@@ -6501,7 +6491,7 @@
         <v>154</v>
       </c>
       <c r="F74" s="19" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="G74" s="19"/>
       <c r="H74" s="29"/>
@@ -6527,7 +6517,7 @@
         <v>156</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="G75" s="1"/>
       <c r="H75" s="29"/>
@@ -6553,7 +6543,7 @@
         <v>158</v>
       </c>
       <c r="F76" s="19" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="G76" s="19"/>
       <c r="H76" s="29"/>
@@ -6581,13 +6571,13 @@
       <c r="F77" s="19"/>
       <c r="G77" s="19"/>
       <c r="H77" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="I77" s="29"/>
       <c r="J77" s="29"/>
       <c r="K77" s="29"/>
       <c r="L77" s="1" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="78" spans="1:12" ht="80" x14ac:dyDescent="0.2">
@@ -6607,10 +6597,10 @@
         <v>164</v>
       </c>
       <c r="F78" s="19" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="G78" s="19" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="H78" s="29"/>
       <c r="I78" s="29"/>
@@ -6635,7 +6625,7 @@
         <v>167</v>
       </c>
       <c r="F79" s="19" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="G79" s="19"/>
       <c r="H79" s="29"/>
@@ -6661,17 +6651,17 @@
         <v>169</v>
       </c>
       <c r="F80" s="19" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="G80" s="19" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="H80" s="29"/>
       <c r="I80" s="29"/>
       <c r="J80" s="29"/>
       <c r="K80" s="29"/>
       <c r="L80" s="29" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="81" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -6691,7 +6681,7 @@
         <v>167</v>
       </c>
       <c r="F81" s="19" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="G81" s="19"/>
       <c r="H81" s="29"/>
@@ -6717,7 +6707,7 @@
         <v>172</v>
       </c>
       <c r="F82" s="19" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="G82" s="19"/>
       <c r="H82" s="29"/>
@@ -6743,7 +6733,7 @@
         <v>175</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="G83" s="1"/>
       <c r="H83" s="29"/>
@@ -6751,7 +6741,7 @@
       <c r="J83" s="29"/>
       <c r="K83" s="29"/>
       <c r="L83" s="1" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -6771,7 +6761,7 @@
         <v>177</v>
       </c>
       <c r="F84" s="19" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="G84" s="19"/>
       <c r="H84" s="29"/>
@@ -6797,7 +6787,7 @@
         <v>179</v>
       </c>
       <c r="F85" s="19" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="G85" s="19"/>
       <c r="H85" s="29"/>
@@ -6825,7 +6815,7 @@
       <c r="F86" s="19"/>
       <c r="G86" s="19"/>
       <c r="H86" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="I86" s="29"/>
       <c r="J86" s="29"/>
@@ -6923,7 +6913,7 @@
         <v>190</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G90" s="1"/>
       <c r="H90" s="29"/>
@@ -6949,7 +6939,7 @@
       <c r="J91" s="29"/>
       <c r="K91" s="29"/>
       <c r="L91" s="1" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="92" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -6963,7 +6953,7 @@
         <v>193</v>
       </c>
       <c r="F92" s="19" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="G92" s="19"/>
       <c r="H92" s="29"/>
@@ -6983,7 +6973,7 @@
         <v>195</v>
       </c>
       <c r="F93" s="32" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="G93" s="32"/>
       <c r="H93" s="29"/>
@@ -7003,7 +6993,7 @@
         <v>196</v>
       </c>
       <c r="F94" s="32" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="G94" s="32"/>
       <c r="H94" s="29"/>
@@ -7029,7 +7019,7 @@
         <v>198</v>
       </c>
       <c r="F95" s="32" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="G95" s="32"/>
       <c r="H95" s="29"/>
@@ -7055,10 +7045,10 @@
         <v>200</v>
       </c>
       <c r="F96" s="19" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="G96" s="19" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="H96" s="29"/>
       <c r="I96" s="29"/>
@@ -7083,7 +7073,7 @@
         <v>203</v>
       </c>
       <c r="F97" s="32" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="G97" s="32"/>
       <c r="H97" s="29"/>
@@ -7103,7 +7093,7 @@
         <v>204</v>
       </c>
       <c r="F98" s="19" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="G98" s="19"/>
       <c r="H98" s="29"/>
@@ -7123,7 +7113,7 @@
         <v>205</v>
       </c>
       <c r="F99" s="19" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="G99" s="19"/>
       <c r="H99" s="29"/>
@@ -7143,7 +7133,7 @@
         <v>206</v>
       </c>
       <c r="F100" s="19" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="G100" s="19"/>
       <c r="H100" s="29"/>
@@ -7193,7 +7183,7 @@
       </c>
       <c r="K102" s="29"/>
       <c r="L102" s="1" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="103" spans="1:12" ht="96" x14ac:dyDescent="0.2">
@@ -7215,7 +7205,7 @@
       <c r="F103" s="19"/>
       <c r="G103" s="19"/>
       <c r="H103" s="29" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="I103" s="29"/>
       <c r="J103" s="29"/>
@@ -7239,7 +7229,7 @@
         <v>213</v>
       </c>
       <c r="F104" s="30" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="G104" s="30"/>
       <c r="H104" s="29"/>
@@ -7265,7 +7255,7 @@
         <v>32</v>
       </c>
       <c r="F105" s="30" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G105" s="30"/>
       <c r="H105" s="29"/>
@@ -7291,7 +7281,7 @@
         <v>216</v>
       </c>
       <c r="F106" s="30" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="G106" s="30"/>
       <c r="H106" s="29"/>
@@ -7317,7 +7307,7 @@
         <v>218</v>
       </c>
       <c r="F107" s="30" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="G107" s="30"/>
       <c r="H107" s="29"/>
@@ -7343,7 +7333,7 @@
         <v>220</v>
       </c>
       <c r="F108" s="30" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="G108" s="30"/>
       <c r="H108" s="29"/>
@@ -7369,10 +7359,10 @@
         <v>222</v>
       </c>
       <c r="F109" s="30" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="G109" s="30" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="H109" s="29"/>
       <c r="I109" s="29"/>
@@ -7405,7 +7395,7 @@
       <c r="J110" s="29"/>
       <c r="K110" s="29"/>
       <c r="L110" s="1" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="111" spans="1:12" ht="30" x14ac:dyDescent="0.2">
@@ -7425,10 +7415,10 @@
         <v>226</v>
       </c>
       <c r="F111" s="30" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="G111" s="30" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="H111" s="29"/>
       <c r="I111" s="29"/>
@@ -7457,7 +7447,7 @@
       </c>
       <c r="K112" s="29"/>
       <c r="L112" s="1" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="113" spans="1:12" ht="64" x14ac:dyDescent="0.2">
@@ -7477,7 +7467,7 @@
         <v>230</v>
       </c>
       <c r="F113" s="31" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="G113" s="31"/>
       <c r="H113" s="29"/>
@@ -7503,7 +7493,7 @@
         <v>232</v>
       </c>
       <c r="F114" s="31" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="G114" s="31"/>
       <c r="H114" s="29"/>
@@ -7529,7 +7519,7 @@
         <v>234</v>
       </c>
       <c r="F115" s="31" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="G115" s="31"/>
       <c r="H115" s="29"/>
@@ -7555,7 +7545,7 @@
         <v>235</v>
       </c>
       <c r="F116" s="31" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="G116" s="31"/>
       <c r="H116" s="29"/>
@@ -7581,10 +7571,10 @@
         <v>236</v>
       </c>
       <c r="F117" s="30" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="G117" s="30" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="H117" s="29"/>
       <c r="I117" s="29"/>
@@ -7637,10 +7627,10 @@
         <v>239</v>
       </c>
       <c r="F119" s="30" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="G119" s="30" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="H119" s="29"/>
       <c r="I119" s="29"/>
@@ -7665,10 +7655,10 @@
         <v>241</v>
       </c>
       <c r="F120" s="30" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="G120" s="30" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="H120" s="29"/>
       <c r="I120" s="29"/>
@@ -7693,7 +7683,7 @@
         <v>243</v>
       </c>
       <c r="F121" s="19" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="G121" s="19"/>
       <c r="H121" s="29"/>
@@ -7747,7 +7737,7 @@
         <v>247</v>
       </c>
       <c r="F123" s="19" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="G123" s="19"/>
       <c r="H123" s="29"/>
@@ -7773,7 +7763,7 @@
         <v>249</v>
       </c>
       <c r="F124" s="19" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="G124" s="19"/>
       <c r="H124" s="29"/>
@@ -7793,7 +7783,7 @@
         <v>250</v>
       </c>
       <c r="F125" s="31" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="G125" s="31"/>
       <c r="H125" s="29"/>
@@ -7899,7 +7889,7 @@
         <v>257</v>
       </c>
       <c r="F129" s="31" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="G129" s="31"/>
       <c r="H129" s="29"/>
@@ -7975,7 +7965,7 @@
         <v>263</v>
       </c>
       <c r="F132" s="31" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="G132" s="31"/>
       <c r="H132" s="29"/>
@@ -8053,7 +8043,7 @@
         <v>266</v>
       </c>
       <c r="F135" s="31" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="G135" s="31"/>
       <c r="H135" s="29"/>
@@ -8081,13 +8071,13 @@
       <c r="F136" s="19"/>
       <c r="G136" s="19"/>
       <c r="H136" s="29" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="I136" s="29"/>
       <c r="J136" s="29"/>
       <c r="K136" s="29"/>
       <c r="L136" s="1" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="137" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -8107,7 +8097,7 @@
         <v>268</v>
       </c>
       <c r="F137" s="31" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="G137" s="31"/>
       <c r="H137" s="29"/>
@@ -8133,7 +8123,7 @@
         <v>218</v>
       </c>
       <c r="F138" s="31" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="G138" s="31"/>
       <c r="H138" s="29"/>
@@ -8517,7 +8507,7 @@
         <v>294</v>
       </c>
       <c r="F153" s="31" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="G153" s="31"/>
       <c r="H153" s="29"/>
@@ -8537,7 +8527,7 @@
         <v>295</v>
       </c>
       <c r="F154" s="31" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G154" s="31"/>
       <c r="H154" s="29"/>
@@ -8557,7 +8547,7 @@
         <v>294</v>
       </c>
       <c r="F155" s="19" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="G155" s="19"/>
       <c r="H155" s="29"/>
@@ -8565,7 +8555,7 @@
       <c r="J155" s="29"/>
       <c r="K155" s="29"/>
       <c r="L155" s="29" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="156" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -8579,7 +8569,7 @@
         <v>296</v>
       </c>
       <c r="F156" s="31" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="G156" s="31"/>
       <c r="H156" s="29"/>
@@ -8599,17 +8589,17 @@
         <v>297</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="H157" s="29"/>
       <c r="I157" s="29"/>
       <c r="J157" s="29"/>
       <c r="K157" s="29"/>
       <c r="L157" s="32" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="158" spans="1:12" ht="176" x14ac:dyDescent="0.2">
@@ -8675,7 +8665,7 @@
         <v>300</v>
       </c>
       <c r="F160" s="19" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="G160" s="19"/>
       <c r="H160" s="29"/>
@@ -8683,7 +8673,7 @@
       <c r="J160" s="29"/>
       <c r="K160" s="29"/>
       <c r="L160" s="29" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="161" spans="1:12" ht="96" x14ac:dyDescent="0.2">
@@ -8703,7 +8693,7 @@
         <v>129</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="G161" s="1"/>
       <c r="H161" s="29"/>
@@ -8729,7 +8719,7 @@
         <v>132</v>
       </c>
       <c r="F162" s="19" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="G162" s="19"/>
       <c r="H162" s="29"/>
@@ -8859,7 +8849,7 @@
         <v>304</v>
       </c>
       <c r="F167" s="19" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="G167" s="19"/>
       <c r="H167" s="29"/>
@@ -8921,7 +8911,7 @@
       <c r="J169" s="29"/>
       <c r="K169" s="29"/>
       <c r="L169" s="29" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="170" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -8969,7 +8959,7 @@
       <c r="J171" s="29"/>
       <c r="K171" s="29"/>
       <c r="L171" s="29" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="172" spans="1:12" ht="80" x14ac:dyDescent="0.2">
@@ -8989,7 +8979,7 @@
         <v>154</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="G172" s="1"/>
       <c r="H172" s="29"/>
@@ -8997,7 +8987,7 @@
       <c r="J172" s="29"/>
       <c r="K172" s="29"/>
       <c r="L172" s="29" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="173" spans="1:12" ht="96" x14ac:dyDescent="0.2">
@@ -9017,7 +9007,7 @@
         <v>311</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="G173" s="1"/>
       <c r="H173" s="29"/>
@@ -9043,7 +9033,7 @@
         <v>312</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="G174" s="1"/>
       <c r="H174" s="29"/>
@@ -9071,7 +9061,7 @@
       <c r="F175" s="1"/>
       <c r="G175" s="1"/>
       <c r="H175" s="29" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="I175" s="29"/>
       <c r="J175" s="29"/>
@@ -9097,7 +9087,7 @@
       <c r="F176" s="1"/>
       <c r="G176" s="1"/>
       <c r="H176" s="29" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="I176" s="29"/>
       <c r="J176" s="29"/>
@@ -9195,7 +9185,7 @@
         <v>317</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G180" s="1"/>
       <c r="H180" s="29"/>
@@ -9203,7 +9193,7 @@
       <c r="J180" s="29"/>
       <c r="K180" s="29"/>
       <c r="L180" s="1" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="181" spans="1:12" ht="160" x14ac:dyDescent="0.2">
@@ -9245,7 +9235,7 @@
         <v>320</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="G182" s="1"/>
       <c r="H182" s="29"/>
@@ -9273,7 +9263,7 @@
       <c r="F183" s="19"/>
       <c r="G183" s="19"/>
       <c r="H183" s="29" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="I183" s="29"/>
       <c r="J183" s="29"/>
@@ -9345,7 +9335,7 @@
         <v>317</v>
       </c>
       <c r="F186" s="19" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G186" s="19"/>
       <c r="H186" s="29"/>
@@ -9353,7 +9343,7 @@
       <c r="J186" s="29"/>
       <c r="K186" s="29"/>
       <c r="L186" s="1" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="187" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -9375,7 +9365,7 @@
       <c r="J187" s="29"/>
       <c r="K187" s="29"/>
       <c r="L187" s="29" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="188" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -9421,7 +9411,7 @@
         <v>326</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="G189" s="1"/>
       <c r="H189" s="29"/>
@@ -9499,10 +9489,10 @@
         <v>332</v>
       </c>
       <c r="F192" s="19" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="G192" s="19" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="H192" s="29"/>
       <c r="I192" s="29"/>
@@ -9535,7 +9525,7 @@
       <c r="J193" s="29"/>
       <c r="K193" s="29"/>
       <c r="L193" s="29" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="194" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -9555,7 +9545,7 @@
         <v>336</v>
       </c>
       <c r="F194" s="19" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="G194" s="19"/>
       <c r="H194" s="29"/>
@@ -9583,13 +9573,13 @@
       <c r="F195" s="19"/>
       <c r="G195" s="19"/>
       <c r="H195" s="29" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="I195" s="29"/>
       <c r="J195" s="29"/>
       <c r="K195" s="29"/>
       <c r="L195" s="29" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="196" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -9656,7 +9646,7 @@
       <c r="F198" s="19"/>
       <c r="G198" s="19"/>
       <c r="H198" s="29" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="I198" s="29"/>
       <c r="J198" s="29"/>
@@ -9680,7 +9670,7 @@
         <v>342</v>
       </c>
       <c r="F199" s="19" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="G199" s="19"/>
       <c r="H199" s="29"/>
@@ -9699,7 +9689,7 @@
       <c r="F200" s="19"/>
       <c r="G200" s="19"/>
       <c r="H200" s="29" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="I200" s="29"/>
       <c r="J200" s="29"/>
@@ -9716,7 +9706,7 @@
       <c r="F201" s="19"/>
       <c r="G201" s="19"/>
       <c r="H201" s="29" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="I201" s="29"/>
       <c r="J201" s="29"/>
@@ -9733,7 +9723,7 @@
       <c r="F202" s="19"/>
       <c r="G202" s="19"/>
       <c r="H202" s="29" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="I202" s="29"/>
       <c r="J202" s="29"/>
@@ -9759,7 +9749,7 @@
       <c r="F203" s="19"/>
       <c r="G203" s="19"/>
       <c r="H203" s="29" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="I203" s="29"/>
       <c r="J203" s="29"/>
@@ -9785,7 +9775,7 @@
       <c r="F204" s="19"/>
       <c r="G204" s="19"/>
       <c r="H204" s="29" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="I204" s="29"/>
       <c r="J204" s="29"/>
@@ -9829,7 +9819,7 @@
       <c r="J206" s="29"/>
       <c r="K206" s="29"/>
       <c r="L206" s="1" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="207" spans="1:12" ht="256" x14ac:dyDescent="0.2">
@@ -9851,7 +9841,7 @@
       <c r="J207" s="29"/>
       <c r="K207" s="29"/>
       <c r="L207" s="1" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="208" spans="1:12" ht="96" x14ac:dyDescent="0.2">
@@ -9896,7 +9886,7 @@
         <v>253</v>
       </c>
       <c r="F209" s="19" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="G209" s="19"/>
       <c r="H209" s="29"/>
@@ -9922,7 +9912,7 @@
         <v>354</v>
       </c>
       <c r="F210" s="19" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="G210" s="19"/>
       <c r="I210" s="29"/>
@@ -10096,7 +10086,7 @@
         <v>364</v>
       </c>
       <c r="F217" s="19" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="G217" s="19"/>
       <c r="H217" s="29"/>
@@ -10122,7 +10112,7 @@
         <v>367</v>
       </c>
       <c r="F218" s="19" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="G218" s="19"/>
       <c r="H218" s="29"/>
@@ -10182,7 +10172,7 @@
       <c r="J220" s="29"/>
       <c r="K220" s="29"/>
       <c r="L220" s="29" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="221" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -10210,7 +10200,7 @@
       <c r="J221" s="29"/>
       <c r="K221" s="29"/>
       <c r="L221" s="29" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="222" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -10230,7 +10220,7 @@
         <v>336</v>
       </c>
       <c r="F222" s="19" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="G222" s="19"/>
       <c r="H222" s="29"/>
@@ -10258,7 +10248,7 @@
       <c r="F223" s="19"/>
       <c r="G223" s="19"/>
       <c r="H223" s="29" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="I223" s="29"/>
       <c r="J223" s="29"/>
@@ -10284,7 +10274,7 @@
       <c r="J224" s="29"/>
       <c r="K224" s="29"/>
       <c r="L224" s="29" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="225" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -10328,7 +10318,7 @@
         <v>378</v>
       </c>
       <c r="F226" s="19" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="G226" s="19"/>
       <c r="H226" s="29"/>
@@ -10354,7 +10344,7 @@
         <v>380</v>
       </c>
       <c r="F227" s="19" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="G227" s="19"/>
       <c r="H227" s="29"/>
@@ -10382,7 +10372,7 @@
       <c r="J228" s="29"/>
       <c r="K228" s="29"/>
       <c r="L228" s="29" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="229" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -10428,7 +10418,7 @@
         <v>378</v>
       </c>
       <c r="F230" s="19" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="G230" s="19"/>
       <c r="H230" s="29"/>
@@ -10454,7 +10444,7 @@
         <v>383</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="G231" s="1"/>
       <c r="H231" s="29"/>
@@ -10479,7 +10469,7 @@
         <v>386</v>
       </c>
       <c r="F232" s="24" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="H232" s="29"/>
       <c r="I232" s="29"/>
@@ -10504,7 +10494,7 @@
         <v>388</v>
       </c>
       <c r="F233" s="19" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="G233" s="19"/>
       <c r="H233" s="29"/>
@@ -10530,7 +10520,7 @@
         <v>390</v>
       </c>
       <c r="F234" s="19" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="G234" s="19"/>
       <c r="H234" s="29"/>
@@ -10556,7 +10546,7 @@
         <v>392</v>
       </c>
       <c r="F235" s="19" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="G235" s="19"/>
       <c r="H235" s="29"/>
@@ -10582,7 +10572,7 @@
         <v>380</v>
       </c>
       <c r="F236" s="19" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="G236" s="19"/>
       <c r="H236" s="29"/>
@@ -10604,13 +10594,13 @@
       <c r="F237" s="19"/>
       <c r="G237" s="19"/>
       <c r="H237" s="29" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="I237" s="29"/>
       <c r="J237" s="29"/>
       <c r="K237" s="29"/>
       <c r="L237" s="29" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="238" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -10632,13 +10622,13 @@
       <c r="F238" s="19"/>
       <c r="G238" s="19"/>
       <c r="H238" s="29" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="I238" s="29"/>
       <c r="J238" s="29"/>
       <c r="K238" s="29"/>
       <c r="L238" s="1" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="239" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -10660,7 +10650,7 @@
       <c r="J239" s="29"/>
       <c r="K239" s="29"/>
       <c r="L239" s="29" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="240" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -10680,7 +10670,7 @@
         <v>399</v>
       </c>
       <c r="F240" s="19" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="G240" s="19"/>
       <c r="H240" s="29"/>
@@ -10706,7 +10696,7 @@
         <v>401</v>
       </c>
       <c r="F241" s="19" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="G241" s="19"/>
       <c r="H241" s="29"/>
@@ -10734,7 +10724,7 @@
       <c r="J242" s="29"/>
       <c r="K242" s="29"/>
       <c r="L242" s="29" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="243" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -10754,7 +10744,7 @@
         <v>399</v>
       </c>
       <c r="F243" s="19" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="G243" s="19"/>
       <c r="H243" s="29"/>
@@ -10780,7 +10770,7 @@
         <v>401</v>
       </c>
       <c r="F244" s="19" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="G244" s="19"/>
       <c r="H244" s="29"/>
@@ -10800,7 +10790,7 @@
         <v>404</v>
       </c>
       <c r="F245" s="19" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G245" s="19"/>
       <c r="H245" s="29"/>
@@ -10872,7 +10862,7 @@
         <v>408</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="G248" s="1"/>
       <c r="H248" s="29"/>
@@ -10898,7 +10888,7 @@
         <v>411</v>
       </c>
       <c r="F249" s="19" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="G249" s="19"/>
       <c r="H249" s="29"/>
@@ -10924,7 +10914,7 @@
         <v>413</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="G250" s="1"/>
       <c r="H250" s="29"/>
@@ -10950,7 +10940,7 @@
         <v>415</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="G251" s="1"/>
       <c r="H251" s="29"/>
@@ -10958,7 +10948,7 @@
       <c r="J251" s="29"/>
       <c r="K251" s="29"/>
       <c r="L251" s="29" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="252" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -11004,7 +10994,7 @@
         <v>418</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="G253" s="1"/>
       <c r="H253" s="29"/>
@@ -11030,7 +11020,7 @@
         <v>420</v>
       </c>
       <c r="F254" s="19" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="G254" s="19"/>
       <c r="H254" s="29"/>
@@ -11058,13 +11048,13 @@
       <c r="F255" s="19"/>
       <c r="G255" s="19"/>
       <c r="H255" s="29" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="I255" s="29"/>
       <c r="J255" s="29"/>
       <c r="K255" s="29"/>
       <c r="L255" s="29" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="256" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -11084,7 +11074,7 @@
         <v>424</v>
       </c>
       <c r="F256" s="19" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="G256" s="19"/>
       <c r="H256" s="29"/>
@@ -11109,7 +11099,7 @@
         <v>426</v>
       </c>
       <c r="F257" s="19" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="G257" s="19"/>
       <c r="H257" s="29"/>
@@ -11134,7 +11124,7 @@
         <v>336</v>
       </c>
       <c r="F258" s="19" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="G258" s="19"/>
       <c r="H258" s="29"/>
@@ -11162,7 +11152,7 @@
       <c r="F259" s="19"/>
       <c r="G259" s="19"/>
       <c r="H259" s="29" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="I259" s="29"/>
       <c r="J259" s="29"/>
@@ -11180,10 +11170,10 @@
         <v>428</v>
       </c>
       <c r="F260" s="19" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="G260" s="19" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="H260" s="29"/>
       <c r="I260" s="29"/>
@@ -11208,7 +11198,7 @@
         <v>430</v>
       </c>
       <c r="F261" s="19" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="G261" s="19"/>
       <c r="H261" s="29"/>
@@ -11236,7 +11226,7 @@
       <c r="J262" s="29"/>
       <c r="K262" s="29"/>
       <c r="L262" s="29" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="263" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -11256,7 +11246,7 @@
         <v>430</v>
       </c>
       <c r="F263" s="19" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="G263" s="19"/>
       <c r="H263" s="29"/>
@@ -11264,7 +11254,7 @@
       <c r="J263" s="29"/>
       <c r="K263" s="29"/>
       <c r="L263" s="1" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="264" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -11284,7 +11274,7 @@
         <v>433</v>
       </c>
       <c r="F264" s="19" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="G264" s="19"/>
       <c r="H264" s="29"/>
@@ -11310,7 +11300,7 @@
         <v>434</v>
       </c>
       <c r="F265" s="19" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="G265" s="19"/>
       <c r="H265" s="29"/>
@@ -11338,7 +11328,7 @@
       <c r="J266" s="29"/>
       <c r="K266" s="29"/>
       <c r="L266" s="29" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="267" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -11384,7 +11374,7 @@
       <c r="F268" s="19"/>
       <c r="G268" s="19"/>
       <c r="H268" s="29" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="I268" s="29"/>
       <c r="J268" s="29"/>
@@ -11408,7 +11398,7 @@
         <v>441</v>
       </c>
       <c r="F269" s="19" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="G269" s="19"/>
       <c r="H269" s="29"/>
@@ -11457,7 +11447,7 @@
       <c r="F271" s="19"/>
       <c r="G271" s="19"/>
       <c r="H271" s="29" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="I271" s="29"/>
       <c r="J271" s="29"/>
@@ -11481,7 +11471,7 @@
         <v>445</v>
       </c>
       <c r="F272" s="19" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="G272" s="19"/>
       <c r="H272" s="29"/>
@@ -11489,7 +11479,7 @@
       <c r="J272" s="29"/>
       <c r="K272" s="29"/>
       <c r="L272" s="29" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="273" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -11511,7 +11501,7 @@
       <c r="F273" s="19"/>
       <c r="G273" s="19"/>
       <c r="H273" s="29" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="I273" s="29"/>
       <c r="J273" s="29"/>
@@ -11537,7 +11527,7 @@
       <c r="F274" s="19"/>
       <c r="G274" s="19"/>
       <c r="H274" s="29" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="I274" s="29"/>
       <c r="J274" s="29"/>
@@ -11561,7 +11551,7 @@
         <v>441</v>
       </c>
       <c r="F275" s="19" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="G275" s="19"/>
       <c r="H275" s="29"/>
@@ -11583,13 +11573,13 @@
       <c r="F276" s="19"/>
       <c r="G276" s="19"/>
       <c r="H276" s="29" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="I276" s="29"/>
       <c r="J276" s="29"/>
       <c r="K276" s="29"/>
       <c r="L276" s="29" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="277" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -11609,7 +11599,7 @@
         <v>455</v>
       </c>
       <c r="F277" s="19" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="G277" s="19"/>
       <c r="H277" s="29"/>
@@ -11635,7 +11625,7 @@
         <v>457</v>
       </c>
       <c r="F278" s="19" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="G278" s="19"/>
       <c r="H278" s="29"/>
@@ -11643,7 +11633,7 @@
       <c r="J278" s="29"/>
       <c r="K278" s="29"/>
       <c r="L278" s="29" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="279" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -11685,7 +11675,7 @@
         <v>461</v>
       </c>
       <c r="F280" s="19" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="G280" s="19"/>
       <c r="H280" s="29"/>
@@ -11733,7 +11723,7 @@
         <v>461</v>
       </c>
       <c r="F282" s="19" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="G282" s="19"/>
       <c r="H282" s="29"/>
@@ -11753,7 +11743,7 @@
         <v>464</v>
       </c>
       <c r="F283" s="33" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="G283" s="33"/>
       <c r="H283" s="29"/>
@@ -11761,7 +11751,7 @@
       <c r="J283" s="29"/>
       <c r="K283" s="29"/>
       <c r="L283" s="29" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="284" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -11777,7 +11767,7 @@
       <c r="F284" s="19"/>
       <c r="G284" s="19"/>
       <c r="H284" s="29" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="I284" s="29"/>
       <c r="J284" s="29"/>
@@ -11801,7 +11791,7 @@
         <v>468</v>
       </c>
       <c r="F285" s="1" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="G285" s="1"/>
       <c r="H285" s="29"/>
@@ -11826,7 +11816,7 @@
         <v>470</v>
       </c>
       <c r="F286" s="19" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="G286" s="19"/>
       <c r="H286" s="29"/>
@@ -11852,7 +11842,7 @@
         <v>472</v>
       </c>
       <c r="F287" s="19" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="G287" s="19"/>
       <c r="H287" s="29"/>
@@ -11878,7 +11868,7 @@
         <v>473</v>
       </c>
       <c r="F288" s="19" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="G288" s="19"/>
       <c r="H288" s="29"/>
@@ -11898,7 +11888,7 @@
         <v>725</v>
       </c>
       <c r="F289" s="1" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="G289" s="1"/>
     </row>
@@ -11916,7 +11906,7 @@
         <v>727</v>
       </c>
       <c r="F290" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G290" s="1"/>
     </row>
@@ -11934,7 +11924,7 @@
         <v>729</v>
       </c>
       <c r="F291" s="1" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="G291" s="1"/>
     </row>
@@ -11954,7 +11944,7 @@
       <c r="F292" s="1"/>
       <c r="G292" s="1"/>
       <c r="H292" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="293" spans="1:8" ht="32" x14ac:dyDescent="0.2">
@@ -11973,7 +11963,7 @@
       <c r="F293" s="1"/>
       <c r="G293" s="1"/>
       <c r="H293" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="294" spans="1:8" ht="48" x14ac:dyDescent="0.2">
@@ -11992,7 +11982,7 @@
       <c r="F294" s="1"/>
       <c r="G294" s="1"/>
       <c r="H294" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="295" spans="1:8" ht="32" x14ac:dyDescent="0.2">
@@ -12011,7 +12001,7 @@
       <c r="F295" s="1"/>
       <c r="G295" s="1"/>
       <c r="H295" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="296" spans="1:8" ht="48" x14ac:dyDescent="0.2">
@@ -12030,7 +12020,7 @@
       <c r="F296" s="1"/>
       <c r="G296" s="1"/>
       <c r="H296" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="297" spans="1:8" ht="48" x14ac:dyDescent="0.2">
@@ -12046,7 +12036,7 @@
       <c r="F297" s="1"/>
       <c r="G297" s="1"/>
       <c r="H297" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="298" spans="1:8" ht="48" x14ac:dyDescent="0.2">
@@ -12063,7 +12053,7 @@
         <v>742</v>
       </c>
       <c r="F298" s="1" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="G298" s="1"/>
     </row>
@@ -12083,7 +12073,7 @@
       <c r="F299" s="1"/>
       <c r="G299" s="1"/>
       <c r="H299" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="300" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -12102,7 +12092,7 @@
       <c r="F300" s="1"/>
       <c r="G300" s="1"/>
       <c r="H300" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="301" spans="1:8" ht="48" x14ac:dyDescent="0.2">
@@ -12118,7 +12108,7 @@
       <c r="F301" s="1"/>
       <c r="G301" s="1"/>
       <c r="H301" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="302" spans="1:8" ht="48" x14ac:dyDescent="0.2">
@@ -12135,7 +12125,7 @@
         <v>742</v>
       </c>
       <c r="F302" s="1" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="G302" s="1"/>
     </row>
@@ -12155,7 +12145,7 @@
       <c r="F303" s="1"/>
       <c r="G303" s="1"/>
       <c r="H303" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="304" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -12174,7 +12164,7 @@
       <c r="F304" s="1"/>
       <c r="G304" s="1"/>
       <c r="H304" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="305" spans="1:12" ht="64" x14ac:dyDescent="0.2">
@@ -12188,7 +12178,7 @@
         <v>748</v>
       </c>
       <c r="F305" s="1" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="G305" s="1"/>
     </row>
@@ -12206,7 +12196,7 @@
         <v>749</v>
       </c>
       <c r="F306" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="G306" s="1"/>
     </row>
@@ -12224,7 +12214,7 @@
         <v>750</v>
       </c>
       <c r="F307" s="1" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="G307" s="1"/>
     </row>
@@ -12244,7 +12234,7 @@
         <v>860</v>
       </c>
       <c r="L308" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="309" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -12266,7 +12256,7 @@
         <v>860</v>
       </c>
       <c r="L309" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="310" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -12288,7 +12278,7 @@
         <v>860</v>
       </c>
       <c r="L310" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="311" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -12307,7 +12297,7 @@
         <v>860</v>
       </c>
       <c r="L311" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="312" spans="1:12" ht="80" x14ac:dyDescent="0.2">
@@ -12329,7 +12319,7 @@
         <v>860</v>
       </c>
       <c r="L312" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="313" spans="1:12" ht="96" x14ac:dyDescent="0.2">
@@ -12351,7 +12341,7 @@
         <v>860</v>
       </c>
       <c r="L313" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="314" spans="1:12" ht="112" x14ac:dyDescent="0.2">
@@ -12365,7 +12355,7 @@
         <v>761</v>
       </c>
       <c r="F314" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="G314" s="1"/>
     </row>
@@ -12383,7 +12373,7 @@
         <v>763</v>
       </c>
       <c r="F315" s="34" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="G315" s="34"/>
     </row>
@@ -12401,7 +12391,7 @@
         <v>765</v>
       </c>
       <c r="F316" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="G316" s="1"/>
     </row>
@@ -12421,7 +12411,7 @@
         <v>860</v>
       </c>
       <c r="L317" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="318" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -12494,7 +12484,7 @@
       <c r="F321" s="1"/>
       <c r="G321" s="1"/>
       <c r="H321" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="322" spans="1:13" ht="48" x14ac:dyDescent="0.2">
@@ -12514,7 +12504,7 @@
         <v>776</v>
       </c>
       <c r="F322" s="1" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="G322" s="1"/>
     </row>
@@ -12535,7 +12525,7 @@
         <v>778</v>
       </c>
       <c r="F323" s="1" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="G323" s="1"/>
     </row>
@@ -12552,7 +12542,7 @@
       <c r="F324" s="1"/>
       <c r="G324" s="1"/>
       <c r="H324" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="325" spans="1:13" ht="32" x14ac:dyDescent="0.2">
@@ -12571,7 +12561,7 @@
       <c r="F325" s="1"/>
       <c r="G325" s="1"/>
       <c r="H325" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="326" spans="1:13" ht="48" x14ac:dyDescent="0.2">
@@ -12590,7 +12580,7 @@
       <c r="F326" s="1"/>
       <c r="G326" s="1"/>
       <c r="H326" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="327" spans="1:13" ht="48" x14ac:dyDescent="0.2">
@@ -12609,7 +12599,7 @@
       <c r="F327" s="1"/>
       <c r="G327" s="1"/>
       <c r="H327" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="328" spans="1:13" ht="32" x14ac:dyDescent="0.2">
@@ -12628,7 +12618,7 @@
       <c r="F328" s="1"/>
       <c r="G328" s="1"/>
       <c r="H328" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="329" spans="1:13" ht="32" x14ac:dyDescent="0.2">
@@ -12642,7 +12632,7 @@
         <v>787</v>
       </c>
       <c r="F329" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="G329" s="1"/>
     </row>
@@ -12663,7 +12653,7 @@
         <v>789</v>
       </c>
       <c r="F330" s="1" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="G330" s="1"/>
     </row>
@@ -12684,7 +12674,7 @@
         <v>791</v>
       </c>
       <c r="F331" s="1" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="G331" s="1"/>
     </row>
@@ -12701,7 +12691,7 @@
       <c r="F332" s="1"/>
       <c r="G332" s="1"/>
       <c r="H332" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="333" spans="1:13" ht="48" x14ac:dyDescent="0.2">
@@ -12720,10 +12710,10 @@
       <c r="F333" s="1"/>
       <c r="G333" s="1"/>
       <c r="H333" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="L333" s="1" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="M333" s="1"/>
     </row>
@@ -12741,7 +12731,7 @@
         <v>795</v>
       </c>
       <c r="F334" s="1" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="G334" s="1"/>
     </row>
@@ -12761,10 +12751,10 @@
       <c r="F335" s="1"/>
       <c r="G335" s="1"/>
       <c r="H335" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="L335" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="336" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -12783,10 +12773,10 @@
       <c r="F336" s="1"/>
       <c r="G336" s="1"/>
       <c r="H336" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="L336" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="337" spans="1:12" ht="64" x14ac:dyDescent="0.2">
@@ -12802,10 +12792,10 @@
       <c r="F337" s="1"/>
       <c r="G337" s="1"/>
       <c r="H337" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="L337" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="338" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -12824,10 +12814,10 @@
       <c r="F338" s="1"/>
       <c r="G338" s="1"/>
       <c r="H338" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="L338" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="339" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -12846,10 +12836,10 @@
       <c r="F339" s="1"/>
       <c r="G339" s="1"/>
       <c r="H339" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="L339" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="340" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -12868,10 +12858,10 @@
       <c r="F340" s="1"/>
       <c r="G340" s="1"/>
       <c r="H340" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="L340" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="341" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -12890,10 +12880,10 @@
       <c r="F341" s="1"/>
       <c r="G341" s="1"/>
       <c r="H341" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="L341" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="342" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -12909,10 +12899,10 @@
       <c r="F342" s="1"/>
       <c r="G342" s="1"/>
       <c r="H342" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="L342" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="343" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -12931,10 +12921,10 @@
       <c r="F343" s="1"/>
       <c r="G343" s="1"/>
       <c r="H343" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="L343" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="344" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -12953,10 +12943,10 @@
       <c r="F344" s="1"/>
       <c r="G344" s="1"/>
       <c r="H344" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="L344" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/ICAO_WXXM_3.0.0_Semantic_Correspondence_Report_v3.xlsx
+++ b/xlsx/ICAO_WXXM_3.0.0_Semantic_Correspondence_Report_v3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paco/Documents/GitHub/connectedbyairm2021/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B7388E9-92B2-9345-B74A-E564540E388B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620E1617-63CD-F949-9023-A365FD9494FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1640" yWindow="-21100" windowWidth="35880" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3420" yWindow="-21100" windowWidth="35880" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="report" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2000" uniqueCount="1046">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2001" uniqueCount="1046">
   <si>
     <t>AerodromeAirTemperatureForecast</t>
   </si>
@@ -2958,9 +2958,6 @@
     <t>same as row 153?</t>
   </si>
   <si>
-    <t>Not established</t>
-  </si>
-  <si>
     <t xml:space="preserve">urn:aero:airm:1.0.0:LogicalModel:Subjects:Common:Codelists:CodeVerticalReferenceType </t>
   </si>
   <si>
@@ -3297,6 +3294,9 @@
   </si>
   <si>
     <t>urn:aero:airm:1.0.0:LogicalModel:Subjects:Meteorology:WaterBodyCondition@significantWaveHeight</t>
+  </si>
+  <si>
+    <t>noSemanticCorrespondence</t>
   </si>
 </sst>
 </file>
@@ -4054,11 +4054,11 @@
     <xf numFmtId="0" fontId="20" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -4385,7 +4385,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4447,13 +4447,13 @@
       <c r="B8" s="14" t="s">
         <v>935</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
     </row>
     <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
@@ -4578,8 +4578,8 @@
   <dimension ref="A1:M344"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F350" sqref="F350"/>
+      <pane ySplit="1" topLeftCell="A283" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D288" sqref="D288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4616,7 +4616,7 @@
         <v>478</v>
       </c>
       <c r="G1" s="36" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="H1" s="26" t="s">
         <v>479</v>
@@ -4645,7 +4645,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="29" t="s">
@@ -4657,7 +4657,7 @@
       </c>
       <c r="K2" s="29"/>
       <c r="L2" s="1" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -4685,7 +4685,7 @@
       <c r="J3" s="29"/>
       <c r="K3" s="29"/>
       <c r="L3" s="29" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -4713,7 +4713,7 @@
       <c r="J4" s="29"/>
       <c r="K4" s="29"/>
       <c r="L4" s="29" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -4741,7 +4741,7 @@
       <c r="J5" s="29"/>
       <c r="K5" s="29"/>
       <c r="L5" s="29" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -4769,7 +4769,7 @@
       <c r="J6" s="29"/>
       <c r="K6" s="29"/>
       <c r="L6" s="29" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -4791,7 +4791,7 @@
       <c r="J7" s="29"/>
       <c r="K7" s="29"/>
       <c r="L7" s="29" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="160" x14ac:dyDescent="0.2">
@@ -4836,10 +4836,10 @@
         <v>619</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>980</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>981</v>
       </c>
       <c r="G9" s="32"/>
       <c r="H9" s="29"/>
@@ -4847,7 +4847,7 @@
       <c r="J9" s="29"/>
       <c r="K9" s="29"/>
       <c r="L9" s="29" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="64" x14ac:dyDescent="0.2">
@@ -4871,7 +4871,7 @@
       </c>
       <c r="K10" s="29"/>
       <c r="L10" s="1" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -4919,7 +4919,7 @@
         <v>22</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="29"/>
@@ -4939,7 +4939,7 @@
         <v>24</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="29"/>
@@ -4947,7 +4947,7 @@
       <c r="J13" s="29"/>
       <c r="K13" s="29"/>
       <c r="L13" s="1" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="96" x14ac:dyDescent="0.2">
@@ -5085,7 +5085,7 @@
         <v>38</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="29"/>
@@ -5093,7 +5093,7 @@
       <c r="J19" s="29"/>
       <c r="K19" s="29"/>
       <c r="L19" s="1" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -5107,7 +5107,7 @@
         <v>40</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="29"/>
@@ -5115,7 +5115,7 @@
       <c r="J20" s="29"/>
       <c r="K20" s="29"/>
       <c r="L20" s="1" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -5129,7 +5129,7 @@
         <v>42</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="29"/>
@@ -5469,7 +5469,7 @@
       <c r="J34" s="29"/>
       <c r="K34" s="29"/>
       <c r="L34" s="1" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="80" x14ac:dyDescent="0.2">
@@ -5509,10 +5509,10 @@
         <v>78</v>
       </c>
       <c r="F36" s="31" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G36" s="31" t="s">
         <v>1043</v>
-      </c>
-      <c r="G36" s="31" t="s">
-        <v>1044</v>
       </c>
       <c r="H36" s="29"/>
       <c r="I36" s="29"/>
@@ -5537,10 +5537,10 @@
         <v>80</v>
       </c>
       <c r="F37" s="31" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="G37" s="31" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="H37" s="29"/>
       <c r="I37" s="29"/>
@@ -5593,7 +5593,7 @@
       <c r="J39" s="29"/>
       <c r="K39" s="29"/>
       <c r="L39" s="1" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="80" x14ac:dyDescent="0.2">
@@ -5665,7 +5665,7 @@
         <v>91</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="29"/>
@@ -5673,7 +5673,7 @@
       <c r="J42" s="29"/>
       <c r="K42" s="29"/>
       <c r="L42" s="1" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="M42" s="35" t="s">
         <v>919</v>
@@ -5728,7 +5728,7 @@
       <c r="J44" s="29"/>
       <c r="K44" s="29"/>
       <c r="L44" s="1" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="M44" s="19" t="s">
         <v>919</v>
@@ -5822,10 +5822,10 @@
       <c r="E48" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F48" s="38" t="s">
-        <v>973</v>
-      </c>
-      <c r="G48" s="38" t="s">
+      <c r="F48" s="37" t="s">
+        <v>972</v>
+      </c>
+      <c r="G48" s="37" t="s">
         <v>891</v>
       </c>
       <c r="H48" s="29"/>
@@ -5879,7 +5879,7 @@
       <c r="J50" s="29"/>
       <c r="K50" s="29"/>
       <c r="L50" s="29" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="64" x14ac:dyDescent="0.2">
@@ -5951,7 +5951,7 @@
         <v>91</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="G53" s="1"/>
       <c r="H53" s="29"/>
@@ -5959,7 +5959,7 @@
       <c r="J53" s="29"/>
       <c r="K53" s="29"/>
       <c r="L53" s="1" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -6013,7 +6013,7 @@
       <c r="J55" s="29"/>
       <c r="K55" s="29"/>
       <c r="L55" s="1" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="64" x14ac:dyDescent="0.2">
@@ -6037,7 +6037,7 @@
       </c>
       <c r="K56" s="29"/>
       <c r="L56" s="1" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -6111,7 +6111,7 @@
       <c r="J59" s="29"/>
       <c r="K59" s="29"/>
       <c r="L59" s="29" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -6133,7 +6133,7 @@
       <c r="J60" s="29"/>
       <c r="K60" s="29"/>
       <c r="L60" s="29" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="112" x14ac:dyDescent="0.2">
@@ -6155,7 +6155,7 @@
       <c r="J61" s="29"/>
       <c r="K61" s="29"/>
       <c r="L61" s="29" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -6227,7 +6227,7 @@
         <v>129</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="G64" s="1"/>
       <c r="H64" s="29"/>
@@ -6235,7 +6235,7 @@
       <c r="J64" s="29"/>
       <c r="K64" s="29"/>
       <c r="L64" s="1" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -6382,10 +6382,10 @@
         <v>665</v>
       </c>
       <c r="E70" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="F70" s="19" t="s">
         <v>970</v>
-      </c>
-      <c r="F70" s="19" t="s">
-        <v>971</v>
       </c>
       <c r="G70" s="19"/>
       <c r="H70" s="29"/>
@@ -6393,7 +6393,7 @@
       <c r="J70" s="29"/>
       <c r="K70" s="29"/>
       <c r="L70" s="29" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="96" x14ac:dyDescent="0.2">
@@ -6421,7 +6421,7 @@
       <c r="J71" s="29"/>
       <c r="K71" s="29"/>
       <c r="L71" s="29" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -6449,7 +6449,7 @@
       <c r="J72" s="29"/>
       <c r="K72" s="29"/>
       <c r="L72" s="29" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -6463,7 +6463,7 @@
         <v>151</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="G73" s="1"/>
       <c r="H73" s="29"/>
@@ -6471,7 +6471,7 @@
       <c r="J73" s="29"/>
       <c r="K73" s="29"/>
       <c r="L73" s="29" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="80" x14ac:dyDescent="0.2">
@@ -6491,7 +6491,7 @@
         <v>154</v>
       </c>
       <c r="F74" s="19" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="G74" s="19"/>
       <c r="H74" s="29"/>
@@ -6517,7 +6517,7 @@
         <v>156</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="G75" s="1"/>
       <c r="H75" s="29"/>
@@ -6597,7 +6597,7 @@
         <v>164</v>
       </c>
       <c r="F78" s="19" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="G78" s="19" t="s">
         <v>899</v>
@@ -6625,7 +6625,7 @@
         <v>167</v>
       </c>
       <c r="F79" s="19" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="G79" s="19"/>
       <c r="H79" s="29"/>
@@ -6651,17 +6651,17 @@
         <v>169</v>
       </c>
       <c r="F80" s="19" t="s">
+        <v>1035</v>
+      </c>
+      <c r="G80" s="19" t="s">
         <v>1036</v>
-      </c>
-      <c r="G80" s="19" t="s">
-        <v>1037</v>
       </c>
       <c r="H80" s="29"/>
       <c r="I80" s="29"/>
       <c r="J80" s="29"/>
       <c r="K80" s="29"/>
       <c r="L80" s="29" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="81" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -6681,7 +6681,7 @@
         <v>167</v>
       </c>
       <c r="F81" s="19" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="G81" s="19"/>
       <c r="H81" s="29"/>
@@ -6707,7 +6707,7 @@
         <v>172</v>
       </c>
       <c r="F82" s="19" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="G82" s="19"/>
       <c r="H82" s="29"/>
@@ -6733,7 +6733,7 @@
         <v>175</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="G83" s="1"/>
       <c r="H83" s="29"/>
@@ -6741,7 +6741,7 @@
       <c r="J83" s="29"/>
       <c r="K83" s="29"/>
       <c r="L83" s="1" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -6761,7 +6761,7 @@
         <v>177</v>
       </c>
       <c r="F84" s="19" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="G84" s="19"/>
       <c r="H84" s="29"/>
@@ -6787,7 +6787,7 @@
         <v>179</v>
       </c>
       <c r="F85" s="19" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="G85" s="19"/>
       <c r="H85" s="29"/>
@@ -6913,7 +6913,7 @@
         <v>190</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="G90" s="1"/>
       <c r="H90" s="29"/>
@@ -6939,7 +6939,7 @@
       <c r="J91" s="29"/>
       <c r="K91" s="29"/>
       <c r="L91" s="1" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="92" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -7045,7 +7045,7 @@
         <v>200</v>
       </c>
       <c r="F96" s="19" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="G96" s="19" t="s">
         <v>899</v>
@@ -7183,7 +7183,7 @@
       </c>
       <c r="K102" s="29"/>
       <c r="L102" s="1" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="103" spans="1:12" ht="96" x14ac:dyDescent="0.2">
@@ -7333,7 +7333,7 @@
         <v>220</v>
       </c>
       <c r="F108" s="30" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="G108" s="30"/>
       <c r="H108" s="29"/>
@@ -7359,7 +7359,7 @@
         <v>222</v>
       </c>
       <c r="F109" s="30" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="G109" s="30" t="s">
         <v>899</v>
@@ -7395,7 +7395,7 @@
       <c r="J110" s="29"/>
       <c r="K110" s="29"/>
       <c r="L110" s="1" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="111" spans="1:12" ht="30" x14ac:dyDescent="0.2">
@@ -7415,7 +7415,7 @@
         <v>226</v>
       </c>
       <c r="F111" s="30" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="G111" s="30" t="s">
         <v>891</v>
@@ -7447,7 +7447,7 @@
       </c>
       <c r="K112" s="29"/>
       <c r="L112" s="1" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="113" spans="1:12" ht="64" x14ac:dyDescent="0.2">
@@ -7571,7 +7571,7 @@
         <v>236</v>
       </c>
       <c r="F117" s="30" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="G117" s="30" t="s">
         <v>899</v>
@@ -7627,7 +7627,7 @@
         <v>239</v>
       </c>
       <c r="F119" s="30" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="G119" s="30" t="s">
         <v>891</v>
@@ -7655,10 +7655,10 @@
         <v>241</v>
       </c>
       <c r="F120" s="30" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="G120" s="30" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="H120" s="29"/>
       <c r="I120" s="29"/>
@@ -7737,7 +7737,7 @@
         <v>247</v>
       </c>
       <c r="F123" s="19" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="G123" s="19"/>
       <c r="H123" s="29"/>
@@ -8077,7 +8077,7 @@
       <c r="J136" s="29"/>
       <c r="K136" s="29"/>
       <c r="L136" s="1" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="137" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -8589,10 +8589,10 @@
         <v>297</v>
       </c>
       <c r="F157" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="G157" s="1" t="s">
         <v>1039</v>
-      </c>
-      <c r="G157" s="1" t="s">
-        <v>1040</v>
       </c>
       <c r="H157" s="29"/>
       <c r="I157" s="29"/>
@@ -8673,7 +8673,7 @@
       <c r="J160" s="29"/>
       <c r="K160" s="29"/>
       <c r="L160" s="29" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="161" spans="1:12" ht="96" x14ac:dyDescent="0.2">
@@ -8693,7 +8693,7 @@
         <v>129</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="G161" s="1"/>
       <c r="H161" s="29"/>
@@ -8719,7 +8719,7 @@
         <v>132</v>
       </c>
       <c r="F162" s="19" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G162" s="19"/>
       <c r="H162" s="29"/>
@@ -8849,7 +8849,7 @@
         <v>304</v>
       </c>
       <c r="F167" s="19" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="G167" s="19"/>
       <c r="H167" s="29"/>
@@ -8911,7 +8911,7 @@
       <c r="J169" s="29"/>
       <c r="K169" s="29"/>
       <c r="L169" s="29" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="170" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -8979,7 +8979,7 @@
         <v>154</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="G172" s="1"/>
       <c r="H172" s="29"/>
@@ -8987,7 +8987,7 @@
       <c r="J172" s="29"/>
       <c r="K172" s="29"/>
       <c r="L172" s="29" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="173" spans="1:12" ht="96" x14ac:dyDescent="0.2">
@@ -9007,7 +9007,7 @@
         <v>311</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="G173" s="1"/>
       <c r="H173" s="29"/>
@@ -9033,7 +9033,7 @@
         <v>312</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="G174" s="1"/>
       <c r="H174" s="29"/>
@@ -9185,7 +9185,7 @@
         <v>317</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="G180" s="1"/>
       <c r="H180" s="29"/>
@@ -9193,7 +9193,7 @@
       <c r="J180" s="29"/>
       <c r="K180" s="29"/>
       <c r="L180" s="1" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="181" spans="1:12" ht="160" x14ac:dyDescent="0.2">
@@ -9235,7 +9235,7 @@
         <v>320</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="G182" s="1"/>
       <c r="H182" s="29"/>
@@ -9335,7 +9335,7 @@
         <v>317</v>
       </c>
       <c r="F186" s="19" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="G186" s="19"/>
       <c r="H186" s="29"/>
@@ -9343,7 +9343,7 @@
       <c r="J186" s="29"/>
       <c r="K186" s="29"/>
       <c r="L186" s="1" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="187" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -9365,7 +9365,7 @@
       <c r="J187" s="29"/>
       <c r="K187" s="29"/>
       <c r="L187" s="29" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="188" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -9411,7 +9411,7 @@
         <v>326</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="G189" s="1"/>
       <c r="H189" s="29"/>
@@ -9489,10 +9489,10 @@
         <v>332</v>
       </c>
       <c r="F192" s="19" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="G192" s="19" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="H192" s="29"/>
       <c r="I192" s="29"/>
@@ -9525,7 +9525,7 @@
       <c r="J193" s="29"/>
       <c r="K193" s="29"/>
       <c r="L193" s="29" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="194" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -9579,7 +9579,7 @@
       <c r="J195" s="29"/>
       <c r="K195" s="29"/>
       <c r="L195" s="29" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="196" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -9646,7 +9646,7 @@
       <c r="F198" s="19"/>
       <c r="G198" s="19"/>
       <c r="H198" s="29" t="s">
-        <v>943</v>
+        <v>1045</v>
       </c>
       <c r="I198" s="29"/>
       <c r="J198" s="29"/>
@@ -9670,7 +9670,7 @@
         <v>342</v>
       </c>
       <c r="F199" s="19" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="G199" s="19"/>
       <c r="H199" s="29"/>
@@ -9689,7 +9689,7 @@
       <c r="F200" s="19"/>
       <c r="G200" s="19"/>
       <c r="H200" s="29" t="s">
-        <v>943</v>
+        <v>1045</v>
       </c>
       <c r="I200" s="29"/>
       <c r="J200" s="29"/>
@@ -9706,7 +9706,7 @@
       <c r="F201" s="19"/>
       <c r="G201" s="19"/>
       <c r="H201" s="29" t="s">
-        <v>943</v>
+        <v>1045</v>
       </c>
       <c r="I201" s="29"/>
       <c r="J201" s="29"/>
@@ -9723,7 +9723,7 @@
       <c r="F202" s="19"/>
       <c r="G202" s="19"/>
       <c r="H202" s="29" t="s">
-        <v>943</v>
+        <v>1045</v>
       </c>
       <c r="I202" s="29"/>
       <c r="J202" s="29"/>
@@ -9819,7 +9819,7 @@
       <c r="J206" s="29"/>
       <c r="K206" s="29"/>
       <c r="L206" s="1" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="207" spans="1:12" ht="256" x14ac:dyDescent="0.2">
@@ -9841,7 +9841,7 @@
       <c r="J207" s="29"/>
       <c r="K207" s="29"/>
       <c r="L207" s="1" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="208" spans="1:12" ht="96" x14ac:dyDescent="0.2">
@@ -9886,7 +9886,7 @@
         <v>253</v>
       </c>
       <c r="F209" s="19" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="G209" s="19"/>
       <c r="H209" s="29"/>
@@ -9912,7 +9912,7 @@
         <v>354</v>
       </c>
       <c r="F210" s="19" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="G210" s="19"/>
       <c r="I210" s="29"/>
@@ -10086,7 +10086,7 @@
         <v>364</v>
       </c>
       <c r="F217" s="19" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="G217" s="19"/>
       <c r="H217" s="29"/>
@@ -10172,7 +10172,7 @@
       <c r="J220" s="29"/>
       <c r="K220" s="29"/>
       <c r="L220" s="29" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="221" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -10200,7 +10200,7 @@
       <c r="J221" s="29"/>
       <c r="K221" s="29"/>
       <c r="L221" s="29" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="222" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -10274,7 +10274,7 @@
       <c r="J224" s="29"/>
       <c r="K224" s="29"/>
       <c r="L224" s="29" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="225" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -10344,7 +10344,7 @@
         <v>380</v>
       </c>
       <c r="F227" s="19" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="G227" s="19"/>
       <c r="H227" s="29"/>
@@ -10372,7 +10372,7 @@
       <c r="J228" s="29"/>
       <c r="K228" s="29"/>
       <c r="L228" s="29" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="229" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -10444,7 +10444,7 @@
         <v>383</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="G231" s="1"/>
       <c r="H231" s="29"/>
@@ -10469,7 +10469,7 @@
         <v>386</v>
       </c>
       <c r="F232" s="24" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="H232" s="29"/>
       <c r="I232" s="29"/>
@@ -10600,7 +10600,7 @@
       <c r="J237" s="29"/>
       <c r="K237" s="29"/>
       <c r="L237" s="29" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="238" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -10622,13 +10622,13 @@
       <c r="F238" s="19"/>
       <c r="G238" s="19"/>
       <c r="H238" s="29" t="s">
-        <v>943</v>
+        <v>1045</v>
       </c>
       <c r="I238" s="29"/>
       <c r="J238" s="29"/>
       <c r="K238" s="29"/>
       <c r="L238" s="1" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="239" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -10650,7 +10650,7 @@
       <c r="J239" s="29"/>
       <c r="K239" s="29"/>
       <c r="L239" s="29" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="240" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -10724,7 +10724,7 @@
       <c r="J242" s="29"/>
       <c r="K242" s="29"/>
       <c r="L242" s="29" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="243" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -10862,7 +10862,7 @@
         <v>408</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="G248" s="1"/>
       <c r="H248" s="29"/>
@@ -10888,7 +10888,7 @@
         <v>411</v>
       </c>
       <c r="F249" s="19" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="G249" s="19"/>
       <c r="H249" s="29"/>
@@ -10914,7 +10914,7 @@
         <v>413</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="G250" s="1"/>
       <c r="H250" s="29"/>
@@ -10940,7 +10940,7 @@
         <v>415</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="G251" s="1"/>
       <c r="H251" s="29"/>
@@ -10948,7 +10948,7 @@
       <c r="J251" s="29"/>
       <c r="K251" s="29"/>
       <c r="L251" s="29" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="252" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -10994,7 +10994,7 @@
         <v>418</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="G253" s="1"/>
       <c r="H253" s="29"/>
@@ -11054,7 +11054,7 @@
       <c r="J255" s="29"/>
       <c r="K255" s="29"/>
       <c r="L255" s="29" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="256" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -11074,7 +11074,7 @@
         <v>424</v>
       </c>
       <c r="F256" s="19" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="G256" s="19"/>
       <c r="H256" s="29"/>
@@ -11099,7 +11099,7 @@
         <v>426</v>
       </c>
       <c r="F257" s="19" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="G257" s="19"/>
       <c r="H257" s="29"/>
@@ -11170,10 +11170,10 @@
         <v>428</v>
       </c>
       <c r="F260" s="19" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="G260" s="19" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="H260" s="29"/>
       <c r="I260" s="29"/>
@@ -11226,7 +11226,7 @@
       <c r="J262" s="29"/>
       <c r="K262" s="29"/>
       <c r="L262" s="29" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="263" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -11254,7 +11254,7 @@
       <c r="J263" s="29"/>
       <c r="K263" s="29"/>
       <c r="L263" s="1" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="264" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -11328,7 +11328,7 @@
       <c r="J266" s="29"/>
       <c r="K266" s="29"/>
       <c r="L266" s="29" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="267" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -11349,7 +11349,9 @@
       </c>
       <c r="F267" s="19"/>
       <c r="G267" s="19"/>
-      <c r="H267" s="29"/>
+      <c r="H267" s="29" t="s">
+        <v>917</v>
+      </c>
       <c r="I267" s="29"/>
       <c r="J267" s="29"/>
       <c r="K267" s="29"/>
@@ -11398,7 +11400,7 @@
         <v>441</v>
       </c>
       <c r="F269" s="19" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="G269" s="19"/>
       <c r="H269" s="29"/>
@@ -11471,7 +11473,7 @@
         <v>445</v>
       </c>
       <c r="F272" s="19" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="G272" s="19"/>
       <c r="H272" s="29"/>
@@ -11479,7 +11481,7 @@
       <c r="J272" s="29"/>
       <c r="K272" s="29"/>
       <c r="L272" s="29" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="273" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -11551,7 +11553,7 @@
         <v>441</v>
       </c>
       <c r="F275" s="19" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="G275" s="19"/>
       <c r="H275" s="29"/>
@@ -11579,7 +11581,7 @@
       <c r="J276" s="29"/>
       <c r="K276" s="29"/>
       <c r="L276" s="29" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="277" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -11599,7 +11601,7 @@
         <v>455</v>
       </c>
       <c r="F277" s="19" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="G277" s="19"/>
       <c r="H277" s="29"/>
@@ -11625,7 +11627,7 @@
         <v>457</v>
       </c>
       <c r="F278" s="19" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="G278" s="19"/>
       <c r="H278" s="29"/>
@@ -11633,7 +11635,7 @@
       <c r="J278" s="29"/>
       <c r="K278" s="29"/>
       <c r="L278" s="29" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="279" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -11791,7 +11793,7 @@
         <v>468</v>
       </c>
       <c r="F285" s="1" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="G285" s="1"/>
       <c r="H285" s="29"/>
@@ -12053,7 +12055,7 @@
         <v>742</v>
       </c>
       <c r="F298" s="1" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="G298" s="1"/>
     </row>
@@ -12125,7 +12127,7 @@
         <v>742</v>
       </c>
       <c r="F302" s="1" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="G302" s="1"/>
     </row>
@@ -12178,7 +12180,7 @@
         <v>748</v>
       </c>
       <c r="F305" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G305" s="1"/>
     </row>
@@ -12196,7 +12198,7 @@
         <v>749</v>
       </c>
       <c r="F306" s="1" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="G306" s="1"/>
     </row>
@@ -12214,7 +12216,7 @@
         <v>750</v>
       </c>
       <c r="F307" s="1" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G307" s="1"/>
     </row>
@@ -12234,7 +12236,7 @@
         <v>860</v>
       </c>
       <c r="L308" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="309" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -12256,7 +12258,7 @@
         <v>860</v>
       </c>
       <c r="L309" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="310" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -12278,7 +12280,7 @@
         <v>860</v>
       </c>
       <c r="L310" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="311" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -12297,7 +12299,7 @@
         <v>860</v>
       </c>
       <c r="L311" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="312" spans="1:12" ht="80" x14ac:dyDescent="0.2">
@@ -12319,7 +12321,7 @@
         <v>860</v>
       </c>
       <c r="L312" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="313" spans="1:12" ht="96" x14ac:dyDescent="0.2">
@@ -12341,7 +12343,7 @@
         <v>860</v>
       </c>
       <c r="L313" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="314" spans="1:12" ht="112" x14ac:dyDescent="0.2">
@@ -12411,7 +12413,7 @@
         <v>860</v>
       </c>
       <c r="L317" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="318" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -12504,7 +12506,7 @@
         <v>776</v>
       </c>
       <c r="F322" s="1" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="G322" s="1"/>
     </row>
@@ -12525,7 +12527,7 @@
         <v>778</v>
       </c>
       <c r="F323" s="1" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="G323" s="1"/>
     </row>
@@ -12632,7 +12634,7 @@
         <v>787</v>
       </c>
       <c r="F329" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="G329" s="1"/>
     </row>
@@ -12653,7 +12655,7 @@
         <v>789</v>
       </c>
       <c r="F330" s="1" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="G330" s="1"/>
     </row>
@@ -12713,7 +12715,7 @@
         <v>917</v>
       </c>
       <c r="L333" s="1" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="M333" s="1"/>
     </row>
@@ -12731,7 +12733,7 @@
         <v>795</v>
       </c>
       <c r="F334" s="1" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="G334" s="1"/>
     </row>
@@ -12754,7 +12756,7 @@
         <v>917</v>
       </c>
       <c r="L335" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="336" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -12776,7 +12778,7 @@
         <v>917</v>
       </c>
       <c r="L336" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="337" spans="1:12" ht="64" x14ac:dyDescent="0.2">
@@ -12795,7 +12797,7 @@
         <v>917</v>
       </c>
       <c r="L337" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="338" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -12817,7 +12819,7 @@
         <v>917</v>
       </c>
       <c r="L338" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="339" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -12839,7 +12841,7 @@
         <v>917</v>
       </c>
       <c r="L339" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="340" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -12861,7 +12863,7 @@
         <v>917</v>
       </c>
       <c r="L340" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="341" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -12883,7 +12885,7 @@
         <v>917</v>
       </c>
       <c r="L341" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="342" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -12902,7 +12904,7 @@
         <v>917</v>
       </c>
       <c r="L342" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="343" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -12924,7 +12926,7 @@
         <v>917</v>
       </c>
       <c r="L343" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="344" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -12946,7 +12948,7 @@
         <v>917</v>
       </c>
       <c r="L344" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/ICAO_WXXM_3.0.0_Semantic_Correspondence_Report_v3.xlsx
+++ b/xlsx/ICAO_WXXM_3.0.0_Semantic_Correspondence_Report_v3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paco/Documents/GitHub/connectedbyairm2021/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620E1617-63CD-F949-9023-A365FD9494FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA10C49B-1F3A-2E42-A716-7ABC8FCD8558}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3420" yWindow="-21100" windowWidth="35880" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3420" yWindow="-21100" windowWidth="35880" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="report" sheetId="3" r:id="rId1"/>
@@ -4384,8 +4384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4577,7 +4577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M344"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A283" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D288" sqref="D288"/>
     </sheetView>
